--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Tff3-Cxcr4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Tff3-Cxcr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,16 +79,19 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Tff3</t>
   </si>
   <si>
     <t>Cxcr4</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.714464539757194</v>
+        <v>0.7627916666666668</v>
       </c>
       <c r="H2">
-        <v>0.714464539757194</v>
+        <v>2.288375</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.6223788491141802</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.6223788491141802</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>24.0887068439149</v>
+        <v>24.15150666666667</v>
       </c>
       <c r="N2">
-        <v>24.0887068439149</v>
+        <v>72.45452</v>
       </c>
       <c r="O2">
-        <v>0.05792932504214226</v>
+        <v>0.05764986715944041</v>
       </c>
       <c r="P2">
-        <v>0.05792932504214226</v>
+        <v>0.05764986715944041</v>
       </c>
       <c r="Q2">
-        <v>17.21052684858363</v>
+        <v>18.42256802277778</v>
       </c>
       <c r="R2">
-        <v>17.21052684858363</v>
+        <v>165.803112205</v>
       </c>
       <c r="S2">
-        <v>0.05792932504214226</v>
+        <v>0.03588005797427789</v>
       </c>
       <c r="T2">
-        <v>0.05792932504214226</v>
+        <v>0.03588005797427789</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.714464539757194</v>
+        <v>0.7627916666666668</v>
       </c>
       <c r="H3">
-        <v>0.714464539757194</v>
+        <v>2.288375</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.6223788491141802</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.6223788491141802</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>159.175599089258</v>
+        <v>0.097204</v>
       </c>
       <c r="N3">
-        <v>159.175599089258</v>
+        <v>0.291612</v>
       </c>
       <c r="O3">
-        <v>0.3827907856643069</v>
+        <v>0.0002320268364499376</v>
       </c>
       <c r="P3">
-        <v>0.3827907856643069</v>
+        <v>0.0002320268364499377</v>
       </c>
       <c r="Q3">
-        <v>113.7253211438823</v>
+        <v>0.07414640116666668</v>
       </c>
       <c r="R3">
-        <v>113.7253211438823</v>
+        <v>0.6673176105</v>
       </c>
       <c r="S3">
-        <v>0.3827907856643069</v>
+        <v>0.0001444085954333163</v>
       </c>
       <c r="T3">
-        <v>0.3827907856643069</v>
+        <v>0.0001444085954333163</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.714464539757194</v>
+        <v>0.7627916666666668</v>
       </c>
       <c r="H4">
-        <v>0.714464539757194</v>
+        <v>2.288375</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.6223788491141802</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.6223788491141802</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>223.464444502756</v>
+        <v>159.5522103333333</v>
       </c>
       <c r="N4">
-        <v>223.464444502756</v>
+        <v>478.656631</v>
       </c>
       <c r="O4">
-        <v>0.5373947437212477</v>
+        <v>0.3808525843816961</v>
       </c>
       <c r="P4">
-        <v>0.5373947437212477</v>
+        <v>0.3808525843816961</v>
       </c>
       <c r="Q4">
-        <v>159.6574214937586</v>
+        <v>121.7050964405139</v>
       </c>
       <c r="R4">
-        <v>159.6574214937586</v>
+        <v>1095.345867964625</v>
       </c>
       <c r="S4">
-        <v>0.5373947437212477</v>
+        <v>0.2370345931496412</v>
       </c>
       <c r="T4">
-        <v>0.5373947437212477</v>
+        <v>0.2370345931496412</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +711,433 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.7627916666666668</v>
+      </c>
+      <c r="H5">
+        <v>2.288375</v>
+      </c>
+      <c r="I5">
+        <v>0.6223788491141802</v>
+      </c>
+      <c r="J5">
+        <v>0.6223788491141802</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>225.4475503333333</v>
+      </c>
+      <c r="N5">
+        <v>676.342651</v>
+      </c>
+      <c r="O5">
+        <v>0.5381453632487492</v>
+      </c>
+      <c r="P5">
+        <v>0.5381453632487493</v>
+      </c>
+      <c r="Q5">
+        <v>171.9695126646806</v>
+      </c>
+      <c r="R5">
+        <v>1547.725613982125</v>
+      </c>
+      <c r="S5">
+        <v>0.3349302918348889</v>
+      </c>
+      <c r="T5">
+        <v>0.334930291834889</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.7627916666666668</v>
+      </c>
+      <c r="H6">
+        <v>2.288375</v>
+      </c>
+      <c r="I6">
+        <v>0.6223788491141802</v>
+      </c>
+      <c r="J6">
+        <v>0.6223788491141802</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>9.685827333333334</v>
+      </c>
+      <c r="N6">
+        <v>29.057482</v>
+      </c>
+      <c r="O6">
+        <v>0.02312015837366435</v>
+      </c>
+      <c r="P6">
+        <v>0.02312015837366435</v>
+      </c>
+      <c r="Q6">
+        <v>7.388268374638891</v>
+      </c>
+      <c r="R6">
+        <v>66.49441537175001</v>
+      </c>
+      <c r="S6">
+        <v>0.01438949755993879</v>
+      </c>
+      <c r="T6">
+        <v>0.01438949755993879</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.462815</v>
+      </c>
+      <c r="H7">
+        <v>1.388445</v>
+      </c>
+      <c r="I7">
+        <v>0.3776211508858198</v>
+      </c>
+      <c r="J7">
+        <v>0.3776211508858198</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>24.15150666666667</v>
+      </c>
+      <c r="N7">
+        <v>72.45452</v>
+      </c>
+      <c r="O7">
+        <v>0.05764986715944041</v>
+      </c>
+      <c r="P7">
+        <v>0.05764986715944041</v>
+      </c>
+      <c r="Q7">
+        <v>11.17767955793333</v>
+      </c>
+      <c r="R7">
+        <v>100.5991160214</v>
+      </c>
+      <c r="S7">
+        <v>0.02176980918516251</v>
+      </c>
+      <c r="T7">
+        <v>0.02176980918516251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.462815</v>
+      </c>
+      <c r="H8">
+        <v>1.388445</v>
+      </c>
+      <c r="I8">
+        <v>0.3776211508858198</v>
+      </c>
+      <c r="J8">
+        <v>0.3776211508858198</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.097204</v>
+      </c>
+      <c r="N8">
+        <v>0.291612</v>
+      </c>
+      <c r="O8">
+        <v>0.0002320268364499376</v>
+      </c>
+      <c r="P8">
+        <v>0.0002320268364499377</v>
+      </c>
+      <c r="Q8">
+        <v>0.04498746926</v>
+      </c>
+      <c r="R8">
+        <v>0.4048872233399999</v>
+      </c>
+      <c r="S8">
+        <v>8.761824101662132E-05</v>
+      </c>
+      <c r="T8">
+        <v>8.761824101662133E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.714464539757194</v>
-      </c>
-      <c r="H5">
-        <v>0.714464539757194</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>9.10048331383285</v>
-      </c>
-      <c r="N5">
-        <v>9.10048331383285</v>
-      </c>
-      <c r="O5">
-        <v>0.02188514557230325</v>
-      </c>
-      <c r="P5">
-        <v>0.02188514557230325</v>
-      </c>
-      <c r="Q5">
-        <v>6.501972622385611</v>
-      </c>
-      <c r="R5">
-        <v>6.501972622385611</v>
-      </c>
-      <c r="S5">
-        <v>0.02188514557230325</v>
-      </c>
-      <c r="T5">
-        <v>0.02188514557230325</v>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.462815</v>
+      </c>
+      <c r="H9">
+        <v>1.388445</v>
+      </c>
+      <c r="I9">
+        <v>0.3776211508858198</v>
+      </c>
+      <c r="J9">
+        <v>0.3776211508858198</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>159.5522103333333</v>
+      </c>
+      <c r="N9">
+        <v>478.656631</v>
+      </c>
+      <c r="O9">
+        <v>0.3808525843816961</v>
+      </c>
+      <c r="P9">
+        <v>0.3808525843816961</v>
+      </c>
+      <c r="Q9">
+        <v>73.84315622542167</v>
+      </c>
+      <c r="R9">
+        <v>664.588406028795</v>
+      </c>
+      <c r="S9">
+        <v>0.1438179912320549</v>
+      </c>
+      <c r="T9">
+        <v>0.1438179912320549</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.462815</v>
+      </c>
+      <c r="H10">
+        <v>1.388445</v>
+      </c>
+      <c r="I10">
+        <v>0.3776211508858198</v>
+      </c>
+      <c r="J10">
+        <v>0.3776211508858198</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>225.4475503333333</v>
+      </c>
+      <c r="N10">
+        <v>676.342651</v>
+      </c>
+      <c r="O10">
+        <v>0.5381453632487492</v>
+      </c>
+      <c r="P10">
+        <v>0.5381453632487493</v>
+      </c>
+      <c r="Q10">
+        <v>104.3405080075217</v>
+      </c>
+      <c r="R10">
+        <v>939.0645720676951</v>
+      </c>
+      <c r="S10">
+        <v>0.2032150714138602</v>
+      </c>
+      <c r="T10">
+        <v>0.2032150714138602</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.462815</v>
+      </c>
+      <c r="H11">
+        <v>1.388445</v>
+      </c>
+      <c r="I11">
+        <v>0.3776211508858198</v>
+      </c>
+      <c r="J11">
+        <v>0.3776211508858198</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>9.685827333333334</v>
+      </c>
+      <c r="N11">
+        <v>29.057482</v>
+      </c>
+      <c r="O11">
+        <v>0.02312015837366435</v>
+      </c>
+      <c r="P11">
+        <v>0.02312015837366435</v>
+      </c>
+      <c r="Q11">
+        <v>4.482746177276667</v>
+      </c>
+      <c r="R11">
+        <v>40.34471559549</v>
+      </c>
+      <c r="S11">
+        <v>0.008730660813725553</v>
+      </c>
+      <c r="T11">
+        <v>0.008730660813725553</v>
       </c>
     </row>
   </sheetData>
